--- a/Tableau métriques/Evolutions métriques/evo_physical.xlsx
+++ b/Tableau métriques/Evolutions métriques/evo_physical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabie\Documents\Programmation\Github\Stage CF63\Tableau métriques\Evolutions métriques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD6667D-541A-49B7-AFF6-13FF17BCAA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5241FA-2348-4FA9-8370-81C8E8C7EDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>physical</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>2021_2022</t>
   </si>
@@ -478,35 +475,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>37.654087022242173</v>
@@ -515,49 +511,49 @@
         <v>40.355921651819493</v>
       </c>
       <c r="D2">
-        <v>43.312268442701892</v>
+        <v>43.312268442701878</v>
       </c>
       <c r="E2">
-        <v>15.026739108340189</v>
+        <v>15.03</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>725.0452527431305</v>
+        <v>725.04525274313062</v>
       </c>
       <c r="C3">
-        <v>768.53077790105647</v>
+        <v>768.53077790105658</v>
       </c>
       <c r="D3">
         <v>829.18414687354311</v>
       </c>
       <c r="E3">
-        <v>14.363088888095509</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>3483.141634087935</v>
+        <v>3483.1416340879341</v>
       </c>
       <c r="C4">
         <v>3649.8679652970291</v>
       </c>
       <c r="D4">
-        <v>3947.8597939668989</v>
+        <v>3947.859793966898</v>
       </c>
       <c r="E4">
-        <v>13.341925442565341</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2758.0963813448029</v>
@@ -569,49 +565,49 @@
         <v>3118.675647093356</v>
       </c>
       <c r="E5">
-        <v>13.07348315263515</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>52.503749473389441</v>
       </c>
       <c r="C6">
-        <v>55.514718260337453</v>
+        <v>55.51471826033746</v>
       </c>
       <c r="D6">
-        <v>59.088582389333148</v>
+        <v>59.088582389333169</v>
       </c>
       <c r="E6">
-        <v>12.54164318165717</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>762.67255956038787</v>
       </c>
       <c r="C7">
-        <v>800.49022639432087</v>
+        <v>800.49022639432098</v>
       </c>
       <c r="D7">
-        <v>856.60799017615557</v>
+        <v>856.60799017615568</v>
       </c>
       <c r="E7">
-        <v>12.31661339302846</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>293.58034880256281</v>
+        <v>293.5803488025627</v>
       </c>
       <c r="C8">
         <v>307.64722188625439</v>
@@ -620,83 +616,83 @@
         <v>329.03052358971092</v>
       </c>
       <c r="E8">
-        <v>12.075118423879569</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>39.079962526514748</v>
+        <v>39.079962526514763</v>
       </c>
       <c r="C9">
-        <v>40.758806260122043</v>
+        <v>40.758806260122057</v>
       </c>
       <c r="D9">
         <v>43.798784703544761</v>
       </c>
       <c r="E9">
-        <v>12.074786852286289</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>255.92626178032049</v>
       </c>
       <c r="C10">
-        <v>267.29130023443491</v>
+        <v>267.29130023443503</v>
       </c>
       <c r="D10">
         <v>285.71825514700902</v>
       </c>
       <c r="E10">
-        <v>11.64085043849901</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>428.74144055043962</v>
+        <v>428.74144055043968</v>
       </c>
       <c r="C11">
         <v>449.18913182441821</v>
       </c>
       <c r="D11">
-        <v>471.35295898729328</v>
+        <v>471.35295898729339</v>
       </c>
       <c r="E11">
-        <v>9.9387449886222488</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>7279.0334516827497</v>
       </c>
       <c r="C12">
-        <v>7481.9739311858184</v>
+        <v>7481.9739311858193</v>
       </c>
       <c r="D12">
-        <v>7946.7977720467024</v>
+        <v>7946.7977720467043</v>
       </c>
       <c r="E12">
-        <v>9.1738048024711372</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>313.94307192086359</v>
+        <v>313.9430719208637</v>
       </c>
       <c r="C13">
         <v>326.54261125636509</v>
@@ -705,46 +701,46 @@
         <v>342.60606069691983</v>
       </c>
       <c r="E13">
-        <v>9.1299956392352968</v>
+        <v>9.1300000000000008</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>252.4074770878081</v>
+        <v>252.40747708780819</v>
       </c>
       <c r="C14">
-        <v>259.93478717358761</v>
+        <v>259.93478717358749</v>
       </c>
       <c r="D14">
         <v>274.62718117830337</v>
       </c>
       <c r="E14">
-        <v>8.8031085080595499</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>3031.5388588889032</v>
+        <v>3031.5388588889041</v>
       </c>
       <c r="C15">
-        <v>3114.454211731635</v>
+        <v>3114.4542117316341</v>
       </c>
       <c r="D15">
         <v>3285.0211677677239</v>
       </c>
       <c r="E15">
-        <v>8.3615061748450135</v>
+        <v>8.36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>366.52527186241969</v>
@@ -753,15 +749,15 @@
         <v>381.80804099030883</v>
       </c>
       <c r="D16">
-        <v>396.75412001120981</v>
+        <v>396.75412001120992</v>
       </c>
       <c r="E16">
-        <v>8.2474116982953571</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>213.32751456129341</v>
@@ -773,15 +769,15 @@
         <v>230.8283964747587</v>
       </c>
       <c r="E17">
-        <v>8.2037621586018741</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>39.562772654343853</v>
+        <v>39.562772654343867</v>
       </c>
       <c r="C18">
         <v>40.910537103284781</v>
@@ -790,12 +786,12 @@
         <v>42.684318593250488</v>
       </c>
       <c r="E18">
-        <v>7.8901091341076892</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>258.73436518920732</v>
@@ -807,15 +803,15 @@
         <v>278.29791205624031</v>
       </c>
       <c r="E19">
-        <v>7.5612479435140401</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>2268.8662993285152</v>
+        <v>2268.8662993285161</v>
       </c>
       <c r="C20">
         <v>2313.9639853373128</v>
@@ -824,80 +820,80 @@
         <v>2428.413177591568</v>
       </c>
       <c r="E20">
-        <v>7.0320088191301187</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>5758.0935878381697</v>
       </c>
       <c r="C21">
-        <v>5877.3042817065198</v>
+        <v>5877.3042817065179</v>
       </c>
       <c r="D21">
         <v>6161.560774943453</v>
       </c>
       <c r="E21">
-        <v>7.0069577882071528</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>38873.549662170248</v>
       </c>
       <c r="C22">
-        <v>39681.858877029801</v>
+        <v>39681.858877029787</v>
       </c>
       <c r="D22">
         <v>41372.45455285006</v>
       </c>
       <c r="E22">
-        <v>6.4282909906517212</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>2000.008503677408</v>
       </c>
       <c r="C23">
-        <v>2054.3237278940419</v>
+        <v>2054.323727894041</v>
       </c>
       <c r="D23">
         <v>2121.7544734018738</v>
       </c>
       <c r="E23">
-        <v>6.0872726041220533</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>36000.081963357967</v>
       </c>
       <c r="C24">
-        <v>36754.810397854737</v>
+        <v>36754.81039785473</v>
       </c>
       <c r="D24">
         <v>38075.190627446333</v>
       </c>
       <c r="E24">
-        <v>5.764177609930063</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>1884.9645589267191</v>
@@ -906,15 +902,15 @@
         <v>1927.9191440039069</v>
       </c>
       <c r="D25">
-        <v>1972.2712847449841</v>
+        <v>1972.2712847449829</v>
       </c>
       <c r="E25">
-        <v>4.6317436264147274</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>21.431517367298099</v>
@@ -926,24 +922,24 @@
         <v>22.337812237270441</v>
       </c>
       <c r="E26">
-        <v>4.2287946972678414</v>
+        <v>4.2300000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>21.602423141421941</v>
       </c>
       <c r="C27">
-        <v>22.173606898080589</v>
+        <v>22.173606898080578</v>
       </c>
       <c r="D27">
         <v>22.209117504280041</v>
       </c>
       <c r="E27">
-        <v>2.808455138973645</v>
+        <v>2.81</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/Evolutions métriques/evo_physical.xlsx
+++ b/Tableau métriques/Evolutions métriques/evo_physical.xlsx
@@ -29,27 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00008000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFA500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -91,14 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -524,7 +506,7 @@
       <c r="E2" t="n">
         <v>38.50809382178639</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" t="n">
         <v>18.66005484831513</v>
       </c>
     </row>
@@ -544,7 +526,7 @@
       <c r="E3" t="n">
         <v>40.03950666663555</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" t="n">
         <v>9.542256342688846</v>
       </c>
     </row>
@@ -568,7 +550,7 @@
       <c r="E4" t="n">
         <v>747.5556612977246</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" t="n">
         <v>17.88302751023333</v>
       </c>
     </row>
@@ -588,7 +570,7 @@
       <c r="E5" t="n">
         <v>763.0579548200596</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" t="n">
         <v>8.867675811925265</v>
       </c>
     </row>
@@ -612,7 +594,7 @@
       <c r="E6" t="n">
         <v>3545.963113487038</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" t="n">
         <v>14.31745774684562</v>
       </c>
     </row>
@@ -632,7 +614,7 @@
       <c r="E7" t="n">
         <v>3639.765851040218</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" t="n">
         <v>8.649157913009404</v>
       </c>
     </row>
@@ -656,7 +638,7 @@
       <c r="E8" t="n">
         <v>2798.407452189314</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" t="n">
         <v>13.40117858155421</v>
       </c>
     </row>
@@ -676,7 +658,7 @@
       <c r="E9" t="n">
         <v>2876.707896220159</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" t="n">
         <v>8.591342314614044</v>
       </c>
     </row>
@@ -700,7 +682,7 @@
       <c r="E10" t="n">
         <v>293.2045863022246</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" t="n">
         <v>13.11813993344858</v>
       </c>
     </row>
@@ -720,7 +702,7 @@
       <c r="E11" t="n">
         <v>304.0959348734918</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" t="n">
         <v>7.443248372989289</v>
       </c>
     </row>
@@ -744,7 +726,7 @@
       <c r="E12" t="n">
         <v>254.6964924804383</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" t="n">
         <v>12.32498009359663</v>
       </c>
     </row>
@@ -764,7 +746,7 @@
       <c r="E13" t="n">
         <v>264.0564282068563</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" t="n">
         <v>7.131973914994604</v>
       </c>
     </row>
@@ -788,7 +770,7 @@
       <c r="E14" t="n">
         <v>413.2212581680216</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" t="n">
         <v>10.89087237438335</v>
       </c>
     </row>
@@ -808,7 +790,7 @@
       <c r="E15" t="n">
         <v>438.049735734262</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" t="n">
         <v>5.434385047867811</v>
       </c>
     </row>
@@ -832,7 +814,7 @@
       <c r="E16" t="n">
         <v>51.76364638199163</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" t="n">
         <v>10.59695955468489</v>
       </c>
     </row>
@@ -852,7 +834,7 @@
       <c r="E17" t="n">
         <v>54.91828312350329</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" t="n">
         <v>8.780001442066254</v>
       </c>
     </row>
@@ -876,7 +858,7 @@
       <c r="E18" t="n">
         <v>42.59121228266082</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" t="n">
         <v>10.15496384863576</v>
       </c>
     </row>
@@ -896,7 +878,7 @@
       <c r="E19" t="n">
         <v>39.26160621524579</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" t="n">
         <v>8.2685206096142</v>
       </c>
     </row>
@@ -920,7 +902,7 @@
       <c r="E20" t="n">
         <v>296.1021124432052</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" t="n">
         <v>10.02827090997667</v>
       </c>
     </row>
@@ -940,7 +922,7 @@
       <c r="E21" t="n">
         <v>319.888315931185</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" t="n">
         <v>4.690266698719466</v>
       </c>
     </row>
@@ -964,7 +946,7 @@
       <c r="E22" t="n">
         <v>833.0540919576094</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" t="n">
         <v>9.936061044681303</v>
       </c>
     </row>
@@ -984,7 +966,7 @@
       <c r="E23" t="n">
         <v>767.7258913069584</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" t="n">
         <v>8.588915977071565</v>
       </c>
     </row>
@@ -1008,7 +990,7 @@
       <c r="E24" t="n">
         <v>6908.794767104393</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" t="n">
         <v>7.92261570283828</v>
       </c>
     </row>
@@ -1028,7 +1010,7 @@
       <c r="E25" t="n">
         <v>7405.223471572644</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" t="n">
         <v>5.346478072790001</v>
       </c>
     </row>
@@ -1052,7 +1034,7 @@
       <c r="E26" t="n">
         <v>36105.38327614157</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" t="n">
         <v>6.864255776225947</v>
       </c>
     </row>
@@ -1072,7 +1054,7 @@
       <c r="E27" t="n">
         <v>38516.95176059572</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" t="n">
         <v>2.213830179040507</v>
       </c>
     </row>
@@ -1096,7 +1078,7 @@
       <c r="E28" t="n">
         <v>3201.78844172178</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" t="n">
         <v>6.720790761265005</v>
       </c>
     </row>
@@ -1116,7 +1098,7 @@
       <c r="E29" t="n">
         <v>2943.20713499472</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" t="n">
         <v>4.601195384827677</v>
       </c>
     </row>
@@ -1140,7 +1122,7 @@
       <c r="E30" t="n">
         <v>265.7118812988473</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" t="n">
         <v>5.91295104381787</v>
       </c>
     </row>
@@ -1160,7 +1142,7 @@
       <c r="E31" t="n">
         <v>246.6854268767276</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" t="n">
         <v>5.497181769727817</v>
       </c>
     </row>
@@ -1184,7 +1166,7 @@
       <c r="E32" t="n">
         <v>2368.73434976417</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" t="n">
         <v>5.63426761157901</v>
       </c>
     </row>
@@ -1204,7 +1186,7 @@
       <c r="E33" t="n">
         <v>2175.481243687761</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" t="n">
         <v>3.262953526469854</v>
       </c>
     </row>
@@ -1228,7 +1210,7 @@
       <c r="E34" t="n">
         <v>223.1206690161865</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" t="n">
         <v>5.140063450645163</v>
       </c>
     </row>
@@ -1248,7 +1230,7 @@
       <c r="E35" t="n">
         <v>207.4238206614818</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" t="n">
         <v>4.988508839555808</v>
       </c>
     </row>
@@ -1272,7 +1254,7 @@
       <c r="E36" t="n">
         <v>21.64457394870383</v>
       </c>
-      <c r="F36" s="4" t="n">
+      <c r="F36" t="n">
         <v>-4.633827751915754</v>
       </c>
     </row>
@@ -1292,7 +1274,7 @@
       <c r="E37" t="n">
         <v>19.89319085743011</v>
       </c>
-      <c r="F37" s="3" t="n">
+      <c r="F37" t="n">
         <v>1.538125341602118</v>
       </c>
     </row>
@@ -1316,7 +1298,7 @@
       <c r="E38" t="n">
         <v>1932.535195823294</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" t="n">
         <v>4.211830375388775</v>
       </c>
     </row>
@@ -1336,7 +1318,7 @@
       <c r="E39" t="n">
         <v>1946.887517137761</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" t="n">
         <v>2.541120584815937</v>
       </c>
     </row>
@@ -1360,7 +1342,7 @@
       <c r="E40" t="n">
         <v>20.1742622769974</v>
       </c>
-      <c r="F40" s="3" t="n">
+      <c r="F40" t="n">
         <v>3.368806514156614</v>
       </c>
     </row>
@@ -1380,7 +1362,7 @@
       <c r="E41" t="n">
         <v>20.54419154862124</v>
       </c>
-      <c r="F41" s="3" t="n">
+      <c r="F41" t="n">
         <v>0.4544853599824656</v>
       </c>
     </row>
@@ -1404,7 +1386,7 @@
       <c r="E42" t="n">
         <v>1789.212073300521</v>
       </c>
-      <c r="F42" s="3" t="n">
+      <c r="F42" t="n">
         <v>1.699681340136286</v>
       </c>
     </row>
@@ -1424,7 +1406,7 @@
       <c r="E43" t="n">
         <v>1811.942326599979</v>
       </c>
-      <c r="F43" s="3" t="n">
+      <c r="F43" t="n">
         <v>1.50042856329985</v>
       </c>
     </row>
@@ -1448,7 +1430,7 @@
       <c r="E44" t="n">
         <v>377.0421632698668</v>
       </c>
-      <c r="F44" s="4" t="n">
+      <c r="F44" t="n">
         <v>1.621723818988764</v>
       </c>
     </row>
@@ -1468,7 +1450,7 @@
       <c r="E45" t="n">
         <v>358.8972196207185</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" t="n">
         <v>6.389018482258763</v>
       </c>
     </row>
@@ -1492,7 +1474,7 @@
       <c r="E46" t="n">
         <v>40.17701143397706</v>
       </c>
-      <c r="F46" s="3" t="n">
+      <c r="F46" t="n">
         <v>1.607325016241034</v>
       </c>
     </row>
@@ -1512,7 +1494,7 @@
       <c r="E47" t="n">
         <v>38.7308422683323</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" t="n">
         <v>5.891095269872085</v>
       </c>
     </row>
@@ -1536,7 +1518,7 @@
       <c r="E48" t="n">
         <v>265.7629103633116</v>
       </c>
-      <c r="F48" s="4" t="n">
+      <c r="F48" t="n">
         <v>-0.6308395865596563</v>
       </c>
     </row>
@@ -1556,7 +1538,7 @@
       <c r="E49" t="n">
         <v>251.367117096221</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" t="n">
         <v>6.385344163208172</v>
       </c>
     </row>
@@ -1580,7 +1562,7 @@
       <c r="E50" t="n">
         <v>37075.76012753663</v>
       </c>
-      <c r="F50" s="4" t="n">
+      <c r="F50" t="n">
         <v>0.0569100720670506</v>
       </c>
     </row>
@@ -1600,7 +1582,7 @@
       <c r="E51" t="n">
         <v>34152.02340188321</v>
       </c>
-      <c r="F51" s="3" t="n">
+      <c r="F51" t="n">
         <v>3.676453279197275</v>
       </c>
     </row>
@@ -1624,7 +1606,7 @@
       <c r="E52" t="n">
         <v>5882.471214674826</v>
       </c>
-      <c r="F52" s="4" t="n">
+      <c r="F52" t="n">
         <v>0.05098095767215549</v>
       </c>
     </row>
@@ -1644,7 +1626,7 @@
       <c r="E53" t="n">
         <v>5563.321755814361</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" t="n">
         <v>5.307425186048017</v>
       </c>
     </row>
